--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\FoBObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/fobobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8055523-5151-4843-A185-4C8F746A6FC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="23955" windowHeight="12840"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,18 @@
     <definedName name="outputfrac_nonenergy">'Output by Industry'!$A$5</definedName>
     <definedName name="outputfrac_other">'Output by Industry'!$A$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -285,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -541,7 +553,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -651,6 +663,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -685,10 +701,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -785,6 +798,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -820,6 +850,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -995,26 +1042,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67.1640625" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="73">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,115 +1072,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1138,46 +1188,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1196,65 +1246,65 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="68"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="69"/>
+      <c r="Q6" s="70"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1333,7 @@
       </c>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1362,7 @@
       </c>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1391,7 @@
       </c>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>22</v>
       </c>
@@ -1370,7 +1420,7 @@
       </c>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1391,7 +1441,7 @@
       </c>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1410,96 +1460,96 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="62"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="60"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="62"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="62"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="62"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="64"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="str">
         <f>A6</f>
         <v>Ownership</v>
@@ -1508,7 +1558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
         <f t="shared" ref="B21:B23" si="0">A7</f>
         <v>Owned</v>
@@ -1518,14 +1568,14 @@
         <v>0.83458607438155852</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>Rented</v>
       </c>
       <c r="C22" s="26"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Public Housing</v>
@@ -1535,7 +1585,7 @@
         <v>1.9289972368294446E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="str">
         <f>A10</f>
         <v>Not Public Housing</v>
@@ -1545,28 +1595,28 @@
         <v>0.14612395325014693</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" s="26">
         <f>SUM(C21:C24)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>54</v>
       </c>
@@ -1574,7 +1624,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -1583,8 +1633,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="28" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="30" t="s">
         <v>30</v>
       </c>
@@ -1601,7 +1651,7 @@
         <v>1.9289972368294446E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="30" t="s">
         <v>31</v>
       </c>
@@ -1610,7 +1660,7 @@
         <v>3.6530988312536733E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="31" t="s">
         <v>32</v>
       </c>
@@ -1638,23 +1688,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>34</v>
       </c>
@@ -1677,7 +1727,7 @@
       <c r="P3" s="37"/>
       <c r="Q3" s="38"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -1696,7 +1746,7 @@
       <c r="P4" s="40"/>
       <c r="Q4" s="41"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
@@ -1719,7 +1769,7 @@
       <c r="P5" s="40"/>
       <c r="Q5" s="44"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
@@ -1746,7 +1796,7 @@
       <c r="P6" s="40"/>
       <c r="Q6" s="41"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
@@ -1773,7 +1823,7 @@
       <c r="P7" s="40"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>41</v>
       </c>
@@ -1800,7 +1850,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="41"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>43</v>
       </c>
@@ -1827,7 +1877,7 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="41"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>45</v>
       </c>
@@ -1854,7 +1904,7 @@
       <c r="P10" s="40"/>
       <c r="Q10" s="41"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>47</v>
       </c>
@@ -1881,7 +1931,7 @@
       <c r="P11" s="40"/>
       <c r="Q11" s="41"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -1904,7 +1954,7 @@
       <c r="P12" s="40"/>
       <c r="Q12" s="41"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -1927,7 +1977,7 @@
       <c r="P13" s="49"/>
       <c r="Q13" s="41"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -1950,7 +2000,7 @@
       <c r="P14" s="49"/>
       <c r="Q14" s="41"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -1969,31 +2019,31 @@
       <c r="P15" s="49"/>
       <c r="Q15" s="41"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="70"/>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
+    </row>
+    <row r="18" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="28" t="s">
         <v>13</v>
       </c>
@@ -2001,7 +2051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
         <v>30</v>
       </c>
@@ -2010,7 +2060,7 @@
         <v>0.23714188688565077</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
         <v>31</v>
       </c>
@@ -2019,7 +2069,7 @@
         <v>0.76285811311434926</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>32</v>
       </c>
@@ -2036,28 +2086,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -2065,7 +2115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <v>0.93219819361870848</v>
       </c>
@@ -2073,7 +2123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <v>1.5490855293616566E-2</v>
       </c>
@@ -2081,7 +2131,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="56">
         <v>2.1866536828369144E-3</v>
       </c>
@@ -2089,7 +2139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="56">
         <v>4.9443136381930888E-2</v>
       </c>
@@ -2097,7 +2147,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>6.8116102290716575E-4</v>
       </c>
@@ -2105,7 +2155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2119,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2127,16 +2177,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="55" t="s">
@@ -2149,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2166,7 +2216,7 @@
         <v>0.23714188688565077</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -2183,7 +2233,7 @@
         <v>0.71113495503257274</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -2200,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -2215,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2231,7 +2281,7 @@
         <v>1.1817324639815762E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2247,7 +2297,7 @@
         <v>1.6681065025235112E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +2313,7 @@
         <v>3.7718097726775229E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2329,7 @@
         <v>5.196292126620005E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
